--- a/tests/data/information-unknown-value-type.xlsx
+++ b/tests/data/information-unknown-value-type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2134C7B-3F8B-104D-9E11-07DF1773C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991277D-0AFD-BE46-B937-057E10BDFC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="3480" windowWidth="28520" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="3480" windowWidth="28520" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Data model classes</t>
   </si>
@@ -78,12 +78,6 @@
     <t>creator</t>
   </si>
   <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>created</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>0.1.0</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>license</t>
@@ -126,9 +117,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>http://purl.org/cognite/badmodels/</t>
-  </si>
-  <si>
     <t>badmodel</t>
   </si>
   <si>
@@ -155,12 +143,21 @@
   <si>
     <t>string | date</t>
   </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>BadModel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +210,6 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -352,11 +341,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,14 +379,14 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -414,43 +402,39 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,8 +747,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,10 +775,10 @@
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -802,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -828,10 +812,10 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -857,10 +841,10 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>34</v>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -886,10 +870,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -915,10 +899,10 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -944,7 +928,7 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10">
         <v>45331</v>
@@ -973,7 +957,7 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="10">
         <v>45331</v>
@@ -1002,10 +986,10 @@
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1031,10 +1015,10 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -8624,9 +8608,6 @@
       <c r="B1000" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{8B2A731D-3AC5-4F49-BC49-47D1D7B08D12}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8638,7 +8619,7 @@
   </sheetPr>
   <dimension ref="A1:U912"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -8657,16 +8638,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>31</v>
+      <c r="A1" s="29" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -8701,10 +8682,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8776,7 +8757,7 @@
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
@@ -8792,7 +8773,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="e">
@@ -8812,11 +8793,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="22">
         <v>1</v>
@@ -8832,11 +8813,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="22">
         <v>1</v>
@@ -13393,13 +13374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13433,10 +13414,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">

--- a/tests/data/information-unknown-value-type.xlsx
+++ b/tests/data/information-unknown-value-type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991277D-0AFD-BE46-B937-057E10BDFC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B132B16-1EC0-8247-AD4E-67E1C13AA915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="3480" windowWidth="28520" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="3480" windowWidth="28520" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -132,16 +132,7 @@
     <t>operator</t>
   </si>
   <si>
-    <t>string | Person</t>
-  </si>
-  <si>
-    <t>Point | Bboa | Line</t>
-  </si>
-  <si>
     <t>creationTime</t>
-  </si>
-  <si>
-    <t>string | date</t>
   </si>
   <si>
     <t>space</t>
@@ -151,6 +142,15 @@
   </si>
   <si>
     <t>BadModel</t>
+  </si>
+  <si>
+    <t>Point, Bboa, Line</t>
+  </si>
+  <si>
+    <t>string, Person</t>
+  </si>
+  <si>
+    <t>string, date</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -841,7 +841,7 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>31</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -8619,8 +8619,8 @@
   </sheetPr>
   <dimension ref="A1:U912"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" s="22">
         <v>1</v>
@@ -8813,11 +8813,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="22">
         <v>1</v>
